--- a/Unity/Assets/Config/Excel/AchievementConfig.xlsx
+++ b/Unity/Assets/Config/Excel/AchievementConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="46">
   <si>
     <t>##var</t>
   </si>
@@ -62,6 +62,12 @@
     <t>c</t>
   </si>
   <si>
+    <t>$type</t>
+  </si>
+  <si>
+    <t>$value</t>
+  </si>
+  <si>
     <t>##</t>
   </si>
   <si>
@@ -81,6 +87,12 @@
   </si>
   <si>
     <t>完成xxx条件1</t>
+  </si>
+  <si>
+    <t>属性比较</t>
+  </si>
+  <si>
+    <t>Level</t>
   </si>
   <si>
     <t>成就2</t>
@@ -1151,23 +1163,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="12.75" style="4" customWidth="1"/>
     <col min="2" max="2" width="13.375" style="4" customWidth="1"/>
     <col min="3" max="3" width="15.875" style="4" customWidth="1"/>
     <col min="4" max="4" width="23.125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="16.25" style="5" customWidth="1"/>
+    <col min="5" max="5" width="26.375" style="5" customWidth="1"/>
     <col min="6" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
+    <row r="1" s="1" customFormat="1" spans="1:7">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1183,8 +1195,10 @@
       <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:5">
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:7">
       <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
@@ -1198,10 +1212,12 @@
         <v>8</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" s="3" customFormat="1" spans="1:5">
+        <v>4</v>
+      </c>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:7">
       <c r="A3" s="10" t="s">
         <v>9</v>
       </c>
@@ -1211,41 +1227,46 @@
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:5">
-      <c r="A4" s="6" t="s">
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" s="3" customFormat="1" spans="1:7">
+      <c r="A4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="F4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:7">
+      <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="4">
+      <c r="D5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="4">
         <v>10001</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="5">
-        <v>1000101</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="4">
-        <v>10002</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>18</v>
@@ -1253,165 +1274,264 @@
       <c r="D6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="5">
-        <v>1000102</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5">
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
       <c r="B7" s="4">
+        <v>10002</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="4">
         <v>10003</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="F8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="5">
-        <v>1000103</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8" s="4">
+      <c r="G8" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="4">
         <v>10004</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="5">
-        <v>1000104</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="4">
+      <c r="C9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="4">
         <v>10005</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="5">
-        <v>1000105</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10" s="4">
+      <c r="C10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="4">
         <v>10006</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="5">
-        <v>1000106</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="4">
+      <c r="C11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="4">
         <v>10007</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="5">
-        <v>1000107</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="4">
+      <c r="C12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="4">
         <v>10008</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="5">
-        <v>1000108</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" s="4">
+      <c r="C13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="4">
         <v>10009</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="5">
-        <v>1000109</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5">
-      <c r="B14" s="4">
+      <c r="C14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="4">
         <v>10010</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="5">
-        <v>1000110</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5">
-      <c r="B15" s="4">
+      <c r="C15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="4">
         <v>10011</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="5">
-        <v>1000111</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5">
-      <c r="B16" s="4">
+      <c r="C16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="4">
         <v>10012</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="5">
-        <v>1000112</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="4">
+      <c r="C17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="4">
         <v>10013</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="5">
-        <v>1000113</v>
+      <c r="C18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="5">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="E5:G5"/>
+  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>

--- a/Unity/Assets/Config/Excel/AchievementConfig.xlsx
+++ b/Unity/Assets/Config/Excel/AchievementConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="45">
   <si>
     <t>##var</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>string</t>
-  </si>
-  <si>
-    <t>text</t>
   </si>
   <si>
     <t>##group</t>
@@ -1166,7 +1163,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -1209,7 +1206,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>4</v>
@@ -1219,13 +1216,15 @@
     </row>
     <row r="3" s="3" customFormat="1" spans="1:7">
       <c r="A3" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="10"/>
+        <v>9</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
@@ -1238,28 +1237,28 @@
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>11</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>12</v>
       </c>
       <c r="G4" s="11"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:7">
       <c r="A5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -1269,16 +1268,16 @@
         <v>10001</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" t="s">
         <v>19</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="G6" s="5">
         <v>1</v>
@@ -1289,16 +1288,16 @@
         <v>10002</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="G7" s="5">
         <v>2</v>
@@ -1309,16 +1308,16 @@
         <v>10003</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="G8" s="5">
         <v>3</v>
@@ -1329,16 +1328,16 @@
         <v>10004</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="G9" s="5">
         <v>4</v>
@@ -1349,16 +1348,16 @@
         <v>10005</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="G10" s="5">
         <v>5</v>
@@ -1369,16 +1368,16 @@
         <v>10006</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="G11" s="5">
         <v>6</v>
@@ -1389,16 +1388,16 @@
         <v>10007</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="G12" s="5">
         <v>7</v>
@@ -1409,16 +1408,16 @@
         <v>10008</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="E13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="G13" s="5">
         <v>8</v>
@@ -1429,16 +1428,16 @@
         <v>10009</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="E14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="G14" s="5">
         <v>9</v>
@@ -1449,16 +1448,16 @@
         <v>10010</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="E15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="G15" s="5">
         <v>10</v>
@@ -1469,16 +1468,16 @@
         <v>10011</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="E16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="G16" s="5">
         <v>11</v>
@@ -1489,16 +1488,16 @@
         <v>10012</v>
       </c>
       <c r="C17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="E17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="G17" s="5">
         <v>12</v>
@@ -1509,16 +1508,16 @@
         <v>10013</v>
       </c>
       <c r="C18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="E18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="G18" s="5">
         <v>13</v>

--- a/Unity/Assets/Config/Excel/AchievementConfig.xlsx
+++ b/Unity/Assets/Config/Excel/AchievementConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="62">
   <si>
     <t>##var</t>
   </si>
@@ -44,12 +44,18 @@
     <t>Condition</t>
   </si>
   <si>
+    <t>Icon</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
     <t>int</t>
   </si>
   <si>
+    <t>text</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
@@ -59,6 +65,9 @@
     <t>c</t>
   </si>
   <si>
+    <t>s</t>
+  </si>
+  <si>
     <t>$type</t>
   </si>
   <si>
@@ -80,10 +89,13 @@
     <t>成就条件</t>
   </si>
   <si>
-    <t>成就1</t>
-  </si>
-  <si>
-    <t>完成xxx条件1</t>
+    <t>成就图标</t>
+  </si>
+  <si>
+    <t>achievementname_10001</t>
+  </si>
+  <si>
+    <t>achievementdesc_10001</t>
   </si>
   <si>
     <t>属性比较</t>
@@ -92,76 +104,115 @@
     <t>Level</t>
   </si>
   <si>
-    <t>成就2</t>
-  </si>
-  <si>
-    <t>完成xxx条件2</t>
-  </si>
-  <si>
-    <t>成就3</t>
-  </si>
-  <si>
-    <t>完成xxx条件3</t>
-  </si>
-  <si>
-    <t>成就4</t>
-  </si>
-  <si>
-    <t>完成xxx条件4</t>
-  </si>
-  <si>
-    <t>成就5</t>
-  </si>
-  <si>
-    <t>完成xxx条件5</t>
-  </si>
-  <si>
-    <t>成就6</t>
-  </si>
-  <si>
-    <t>完成xxx条件6</t>
-  </si>
-  <si>
-    <t>成就7</t>
-  </si>
-  <si>
-    <t>完成xxx条件7</t>
-  </si>
-  <si>
-    <t>成就8</t>
-  </si>
-  <si>
-    <t>完成xxx条件8</t>
-  </si>
-  <si>
-    <t>成就9</t>
-  </si>
-  <si>
-    <t>完成xxx条件9</t>
-  </si>
-  <si>
-    <t>成就10</t>
-  </si>
-  <si>
-    <t>完成xxx条件10</t>
-  </si>
-  <si>
-    <t>成就11</t>
-  </si>
-  <si>
-    <t>完成xxx条件11</t>
-  </si>
-  <si>
-    <t>成就12</t>
-  </si>
-  <si>
-    <t>完成xxx条件12</t>
-  </si>
-  <si>
-    <t>成就13</t>
-  </si>
-  <si>
-    <t>完成xxx条件13</t>
+    <t>achievement_10001</t>
+  </si>
+  <si>
+    <t>achievementname_10002</t>
+  </si>
+  <si>
+    <t>achievementdesc_10002</t>
+  </si>
+  <si>
+    <t>achievement_10002</t>
+  </si>
+  <si>
+    <t>achievementname_10003</t>
+  </si>
+  <si>
+    <t>achievementdesc_10003</t>
+  </si>
+  <si>
+    <t>achievement_10003</t>
+  </si>
+  <si>
+    <t>achievementname_10004</t>
+  </si>
+  <si>
+    <t>achievementdesc_10004</t>
+  </si>
+  <si>
+    <t>achievement_10004</t>
+  </si>
+  <si>
+    <t>achievementname_10005</t>
+  </si>
+  <si>
+    <t>achievementdesc_10005</t>
+  </si>
+  <si>
+    <t>achievement_10005</t>
+  </si>
+  <si>
+    <t>achievementname_10006</t>
+  </si>
+  <si>
+    <t>achievementdesc_10006</t>
+  </si>
+  <si>
+    <t>achievement_10006</t>
+  </si>
+  <si>
+    <t>achievementname_10007</t>
+  </si>
+  <si>
+    <t>achievementdesc_10007</t>
+  </si>
+  <si>
+    <t>achievement_10007</t>
+  </si>
+  <si>
+    <t>achievementname_10008</t>
+  </si>
+  <si>
+    <t>achievementdesc_10008</t>
+  </si>
+  <si>
+    <t>achievement_10008</t>
+  </si>
+  <si>
+    <t>achievementname_10009</t>
+  </si>
+  <si>
+    <t>achievementdesc_10009</t>
+  </si>
+  <si>
+    <t>achievement_10009</t>
+  </si>
+  <si>
+    <t>achievementname_10010</t>
+  </si>
+  <si>
+    <t>achievementdesc_10010</t>
+  </si>
+  <si>
+    <t>achievement_10010</t>
+  </si>
+  <si>
+    <t>achievementname_10011</t>
+  </si>
+  <si>
+    <t>achievementdesc_10011</t>
+  </si>
+  <si>
+    <t>achievement_10011</t>
+  </si>
+  <si>
+    <t>achievementname_10012</t>
+  </si>
+  <si>
+    <t>achievementdesc_10012</t>
+  </si>
+  <si>
+    <t>achievement_10012</t>
+  </si>
+  <si>
+    <t>achievementname_10013</t>
+  </si>
+  <si>
+    <t>achievementdesc_10013</t>
+  </si>
+  <si>
+    <t>achievement_10013</t>
   </si>
 </sst>
 </file>
@@ -533,7 +584,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -545,6 +596,43 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -680,7 +768,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -692,34 +780,34 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -805,7 +893,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -830,6 +918,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1160,23 +1257,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="12.75" style="4" customWidth="1"/>
     <col min="2" max="2" width="13.375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="23.125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="26.125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="26.75" style="4" customWidth="1"/>
     <col min="5" max="5" width="26.375" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="5"/>
+    <col min="6" max="7" width="9" style="5"/>
+    <col min="8" max="8" width="20.625" style="5" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:7">
+    <row r="1" s="1" customFormat="1" spans="1:8">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1194,40 +1293,51 @@
       </c>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:8">
       <c r="A2" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
-    </row>
-    <row r="3" s="3" customFormat="1" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:8">
       <c r="A3" s="10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+        <v>11</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" s="3" customFormat="1" spans="1:7">
       <c r="A4" s="10" t="s">
@@ -1236,298 +1346,340 @@
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
-      <c r="E4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="11"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:7">
+      <c r="E4" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="14"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:8">
       <c r="A5" s="6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
-    </row>
-    <row r="6" spans="2:7">
+      <c r="H5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
       <c r="B6" s="4">
         <v>10001</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G6" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="2:7">
+      <c r="H6" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
       <c r="B7" s="4">
         <v>10002</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G7" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="2:7">
+      <c r="H7" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
       <c r="B8" s="4">
         <v>10003</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="F8" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="G8" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="2:7">
+      <c r="H8" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
       <c r="B9" s="4">
         <v>10004</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G9" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="2:7">
+      <c r="H9" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
       <c r="B10" s="4">
         <v>10005</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G10" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="2:7">
+      <c r="H10" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
       <c r="B11" s="4">
         <v>10006</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G11" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="2:7">
+      <c r="H11" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
       <c r="B12" s="4">
         <v>10007</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G12" s="5">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="2:7">
+      <c r="H12" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
       <c r="B13" s="4">
         <v>10008</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G13" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="2:7">
+      <c r="H13" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
       <c r="B14" s="4">
         <v>10009</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G14" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="2:7">
+      <c r="H14" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
       <c r="B15" s="4">
         <v>10010</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G15" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="2:7">
+      <c r="H15" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
       <c r="B16" s="4">
         <v>10011</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G16" s="5">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="2:7">
+      <c r="H16" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
       <c r="B17" s="4">
         <v>10012</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="E17" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G17" s="5">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="2:7">
+      <c r="H17" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
       <c r="B18" s="4">
         <v>10013</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="E18" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G18" s="5">
         <v>13</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="E2:G2"/>
-    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="E3:G3"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="E5:G5"/>
   </mergeCells>

--- a/Unity/Assets/Config/Excel/AchievementConfig.xlsx
+++ b/Unity/Assets/Config/Excel/AchievementConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25140" windowHeight="10065" tabRatio="809"/>
+    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="809"/>
   </bookViews>
   <sheets>
     <sheet name="AchievementProto" sheetId="6" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="61">
   <si>
     <t>##var</t>
   </si>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t>c</t>
-  </si>
-  <si>
-    <t>s</t>
   </si>
   <si>
     <t>$type</t>
@@ -584,7 +581,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -596,43 +593,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -768,7 +728,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -780,34 +740,34 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -893,7 +853,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -903,32 +863,56 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1260,419 +1244,418 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="12.75" style="4" customWidth="1"/>
-    <col min="2" max="2" width="13.375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="26.125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="26.75" style="4" customWidth="1"/>
-    <col min="5" max="5" width="26.375" style="5" customWidth="1"/>
-    <col min="6" max="7" width="9" style="5"/>
-    <col min="8" max="8" width="20.625" style="5" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="5"/>
+    <col min="2" max="2" width="13.375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="26.125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="26.75" style="5" customWidth="1"/>
+    <col min="5" max="5" width="26.375" style="6" customWidth="1"/>
+    <col min="6" max="7" width="9" style="6"/>
+    <col min="8" max="8" width="20.625" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:8">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="1" t="s">
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:8">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="2" t="s">
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:8">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" s="3" customFormat="1" spans="1:8">
+      <c r="A4" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="3" t="s">
+      <c r="F4" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="20"/>
+      <c r="H4" s="19"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:8">
+      <c r="A5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="5">
+        <v>10001</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="22">
+        <v>1</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="5">
+        <v>10002</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="22">
+        <v>2</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="5">
+        <v>10003</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="22">
+        <v>3</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="5">
+        <v>10004</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="22">
+        <v>4</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="5">
+        <v>10005</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="22">
+        <v>5</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="5">
+        <v>10006</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="22">
+        <v>6</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="5">
+        <v>10007</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="22">
+        <v>7</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="5">
+        <v>10008</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="22">
+        <v>8</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="5">
+        <v>10009</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="22">
+        <v>9</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="5">
+        <v>10010</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="22">
+        <v>10</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="5">
+        <v>10011</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="22">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" s="3" customFormat="1" spans="1:7">
-      <c r="A4" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="14" t="s">
+      <c r="H16" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="5">
+        <v>10012</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="22">
+        <v>12</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="5">
+        <v>10013</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="22">
         <v>13</v>
       </c>
-      <c r="F4" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="14"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:8">
-      <c r="A5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8">
-      <c r="B6" s="4">
-        <v>10001</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="5">
-        <v>1</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8">
-      <c r="B7" s="4">
-        <v>10002</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="5">
-        <v>2</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8">
-      <c r="B8" s="4">
-        <v>10003</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="5">
-        <v>3</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8">
-      <c r="B9" s="4">
-        <v>10004</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="5">
-        <v>4</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8">
-      <c r="B10" s="4">
-        <v>10005</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="5">
-        <v>5</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8">
-      <c r="B11" s="4">
-        <v>10006</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="5">
-        <v>6</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8">
-      <c r="B12" s="4">
-        <v>10007</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="5">
-        <v>7</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8">
-      <c r="B13" s="4">
-        <v>10008</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="5">
-        <v>8</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8">
-      <c r="B14" s="4">
-        <v>10009</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="5">
-        <v>9</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8">
-      <c r="B15" s="4">
-        <v>10010</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="5">
-        <v>10</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8">
-      <c r="B16" s="4">
-        <v>10011</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" s="5">
-        <v>11</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8">
-      <c r="B17" s="4">
-        <v>10012</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="5">
-        <v>12</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8">
-      <c r="B18" s="4">
-        <v>10013</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="4" t="s">
+      <c r="H18" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="E18" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" s="5">
-        <v>13</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AchievementConfig.xlsx
+++ b/Unity/Assets/Config/Excel/AchievementConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="809"/>
+    <workbookView windowWidth="25140" windowHeight="10065" tabRatio="809"/>
   </bookViews>
   <sheets>
     <sheet name="AchievementProto" sheetId="6" r:id="rId1"/>
@@ -101,7 +101,7 @@
     <t>Level</t>
   </si>
   <si>
-    <t>achievement_10001</t>
+    <t>achievementicon_10001</t>
   </si>
   <si>
     <t>achievementname_10002</t>
@@ -110,7 +110,7 @@
     <t>achievementdesc_10002</t>
   </si>
   <si>
-    <t>achievement_10002</t>
+    <t>achievementicon_10002</t>
   </si>
   <si>
     <t>achievementname_10003</t>
@@ -119,7 +119,7 @@
     <t>achievementdesc_10003</t>
   </si>
   <si>
-    <t>achievement_10003</t>
+    <t>achievementicon_10003</t>
   </si>
   <si>
     <t>achievementname_10004</t>
@@ -128,7 +128,7 @@
     <t>achievementdesc_10004</t>
   </si>
   <si>
-    <t>achievement_10004</t>
+    <t>achievementicon_10004</t>
   </si>
   <si>
     <t>achievementname_10005</t>
@@ -137,7 +137,7 @@
     <t>achievementdesc_10005</t>
   </si>
   <si>
-    <t>achievement_10005</t>
+    <t>achievementicon_10005</t>
   </si>
   <si>
     <t>achievementname_10006</t>
@@ -146,7 +146,7 @@
     <t>achievementdesc_10006</t>
   </si>
   <si>
-    <t>achievement_10006</t>
+    <t>achievementicon_10006</t>
   </si>
   <si>
     <t>achievementname_10007</t>
@@ -155,7 +155,7 @@
     <t>achievementdesc_10007</t>
   </si>
   <si>
-    <t>achievement_10007</t>
+    <t>achievementicon_10007</t>
   </si>
   <si>
     <t>achievementname_10008</t>
@@ -164,7 +164,7 @@
     <t>achievementdesc_10008</t>
   </si>
   <si>
-    <t>achievement_10008</t>
+    <t>achievementicon_10008</t>
   </si>
   <si>
     <t>achievementname_10009</t>
@@ -173,7 +173,7 @@
     <t>achievementdesc_10009</t>
   </si>
   <si>
-    <t>achievement_10009</t>
+    <t>achievementicon_10009</t>
   </si>
   <si>
     <t>achievementname_10010</t>
@@ -182,7 +182,7 @@
     <t>achievementdesc_10010</t>
   </si>
   <si>
-    <t>achievement_10010</t>
+    <t>achievementicon_10010</t>
   </si>
   <si>
     <t>achievementname_10011</t>
@@ -191,7 +191,7 @@
     <t>achievementdesc_10011</t>
   </si>
   <si>
-    <t>achievement_10011</t>
+    <t>achievementicon_10011</t>
   </si>
   <si>
     <t>achievementname_10012</t>
@@ -200,7 +200,7 @@
     <t>achievementdesc_10012</t>
   </si>
   <si>
-    <t>achievement_10012</t>
+    <t>achievementicon_10012</t>
   </si>
   <si>
     <t>achievementname_10013</t>
@@ -209,7 +209,7 @@
     <t>achievementdesc_10013</t>
   </si>
   <si>
-    <t>achievement_10013</t>
+    <t>achievementicon_10013</t>
   </si>
 </sst>
 </file>
@@ -853,7 +853,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -866,9 +866,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -904,9 +901,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1244,7 +1238,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
@@ -1253,109 +1247,109 @@
     <col min="2" max="2" width="13.375" style="5" customWidth="1"/>
     <col min="3" max="3" width="26.125" style="5" customWidth="1"/>
     <col min="4" max="4" width="26.75" style="5" customWidth="1"/>
-    <col min="5" max="5" width="26.375" style="6" customWidth="1"/>
-    <col min="6" max="7" width="9" style="6"/>
-    <col min="8" max="8" width="20.625" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="7"/>
+    <col min="5" max="5" width="26.375" style="5" customWidth="1"/>
+    <col min="6" max="7" width="9" style="5"/>
+    <col min="8" max="8" width="25.875" style="5" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:8">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="11" t="s">
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:8">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="15" t="s">
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:8">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="19" t="s">
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="18" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" s="3" customFormat="1" spans="1:8">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="20" t="s">
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="19"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="18"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:8">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11" t="s">
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1369,16 +1363,16 @@
       <c r="D6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="20">
         <v>1</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="5" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1392,16 +1386,16 @@
       <c r="D7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="20">
         <v>2</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1415,16 +1409,16 @@
       <c r="D8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="20">
         <v>3</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1438,16 +1432,16 @@
       <c r="D9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="20">
         <v>4</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1461,16 +1455,16 @@
       <c r="D10" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="20">
         <v>5</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="5" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1484,16 +1478,16 @@
       <c r="D11" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G11" s="20">
         <v>6</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="5" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1507,16 +1501,16 @@
       <c r="D12" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G12" s="20">
         <v>7</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="5" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1530,16 +1524,16 @@
       <c r="D13" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G13" s="20">
         <v>8</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="5" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1553,16 +1547,16 @@
       <c r="D14" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G14" s="20">
         <v>9</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="5" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1576,16 +1570,16 @@
       <c r="D15" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="22">
+      <c r="G15" s="20">
         <v>10</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="5" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1599,16 +1593,16 @@
       <c r="D16" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="E16" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F16" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G16" s="20">
         <v>11</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="5" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1622,16 +1616,16 @@
       <c r="D17" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="22">
+      <c r="G17" s="20">
         <v>12</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="5" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1645,16 +1639,16 @@
       <c r="D18" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="E18" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="22" t="s">
+      <c r="F18" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="22">
+      <c r="G18" s="20">
         <v>13</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="H18" s="5" t="s">
         <v>60</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/AchievementConfig.xlsx
+++ b/Unity/Assets/Config/Excel/AchievementConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25140" windowHeight="10065" tabRatio="809"/>
+    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="809"/>
   </bookViews>
   <sheets>
     <sheet name="AchievementProto" sheetId="6" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="100">
   <si>
     <t>##var</t>
   </si>
@@ -41,12 +41,18 @@
     <t>Desc</t>
   </si>
   <si>
+    <t>AchievementType</t>
+  </si>
+  <si>
     <t>Condition</t>
   </si>
   <si>
     <t>Icon</t>
   </si>
   <si>
+    <t>Property</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -59,6 +65,9 @@
     <t>string</t>
   </si>
   <si>
+    <t>int#ref=PropertyConfigCategory</t>
+  </si>
+  <si>
     <t>##group</t>
   </si>
   <si>
@@ -83,12 +92,18 @@
     <t>成就描述</t>
   </si>
   <si>
+    <t>成就类型</t>
+  </si>
+  <si>
     <t>成就条件</t>
   </si>
   <si>
     <t>成就图标</t>
   </si>
   <si>
+    <t>成就属性包</t>
+  </si>
+  <si>
     <t>achievementname_10001</t>
   </si>
   <si>
@@ -210,6 +225,108 @@
   </si>
   <si>
     <t>achievementicon_10013</t>
+  </si>
+  <si>
+    <t>achievementname_10014</t>
+  </si>
+  <si>
+    <t>achievementdesc_10014</t>
+  </si>
+  <si>
+    <t>货币比较</t>
+  </si>
+  <si>
+    <t>achievementicon_10014</t>
+  </si>
+  <si>
+    <t>achievementname_10015</t>
+  </si>
+  <si>
+    <t>achievementdesc_10015</t>
+  </si>
+  <si>
+    <t>achievementicon_10015</t>
+  </si>
+  <si>
+    <t>achievementname_10016</t>
+  </si>
+  <si>
+    <t>achievementdesc_10016</t>
+  </si>
+  <si>
+    <t>achievementicon_10016</t>
+  </si>
+  <si>
+    <t>achievementname_10017</t>
+  </si>
+  <si>
+    <t>achievementdesc_10017</t>
+  </si>
+  <si>
+    <t>achievementicon_10017</t>
+  </si>
+  <si>
+    <t>achievementname_10018</t>
+  </si>
+  <si>
+    <t>achievementdesc_10018</t>
+  </si>
+  <si>
+    <t>achievementicon_10018</t>
+  </si>
+  <si>
+    <t>achievementname_10019</t>
+  </si>
+  <si>
+    <t>achievementdesc_10019</t>
+  </si>
+  <si>
+    <t>achievementicon_10019</t>
+  </si>
+  <si>
+    <t>achievementname_10020</t>
+  </si>
+  <si>
+    <t>achievementdesc_10020</t>
+  </si>
+  <si>
+    <t>achievementicon_10020</t>
+  </si>
+  <si>
+    <t>achievementname_10021</t>
+  </si>
+  <si>
+    <t>achievementdesc_10021</t>
+  </si>
+  <si>
+    <t>achievementicon_10021</t>
+  </si>
+  <si>
+    <t>achievementname_10022</t>
+  </si>
+  <si>
+    <t>achievementdesc_10022</t>
+  </si>
+  <si>
+    <t>achievementicon_10022</t>
+  </si>
+  <si>
+    <t>achievementname_10023</t>
+  </si>
+  <si>
+    <t>achievementdesc_10023</t>
+  </si>
+  <si>
+    <t>achievementicon_10023</t>
+  </si>
+  <si>
+    <t>achievementname_10024</t>
+  </si>
+  <si>
+    <t>achievementdesc_10024</t>
+  </si>
+  <si>
+    <t>achievementicon_10024</t>
   </si>
 </sst>
 </file>
@@ -222,7 +339,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,6 +349,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
@@ -722,144 +845,150 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -873,41 +1002,65 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1235,430 +1388,899 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="12.75" style="4" customWidth="1"/>
-    <col min="2" max="2" width="13.375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="26.125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="26.75" style="5" customWidth="1"/>
-    <col min="5" max="5" width="26.375" style="5" customWidth="1"/>
-    <col min="6" max="7" width="9" style="5"/>
-    <col min="8" max="8" width="25.875" style="5" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="12.75" style="6" customWidth="1"/>
+    <col min="2" max="2" width="13.375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="26.125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="26.75" style="7" customWidth="1"/>
+    <col min="5" max="5" width="22" style="7" customWidth="1"/>
+    <col min="6" max="6" width="26.375" style="7" customWidth="1"/>
+    <col min="7" max="8" width="9" style="7"/>
+    <col min="9" max="9" width="27.625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="33.625" style="8" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:8">
-      <c r="A1" s="7" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:10">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="10" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:8">
-      <c r="A2" s="11" t="s">
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="12" t="s">
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:10">
+      <c r="A2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="B2" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:9">
+      <c r="A3" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="19"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" s="3" customFormat="1" spans="1:9">
+      <c r="A4" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="20"/>
+      <c r="I4" s="28"/>
+    </row>
+    <row r="5" s="4" customFormat="1" spans="1:10">
+      <c r="A5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" s="5" customFormat="1" ht="17.25" spans="2:10">
+      <c r="B6" s="6">
+        <v>10001</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="24">
+        <v>1</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="30">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="7" s="5" customFormat="1" ht="17.25" spans="2:10">
+      <c r="B7" s="6">
+        <v>10002</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="24">
+        <v>2</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="30">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="8" s="5" customFormat="1" ht="17.25" spans="2:10">
+      <c r="B8" s="6">
+        <v>10003</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="24">
+        <v>3</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="30">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="9" s="5" customFormat="1" ht="17.25" spans="2:10">
+      <c r="B9" s="6">
+        <v>10004</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="24">
+        <v>4</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="30">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="10" s="5" customFormat="1" ht="17.25" spans="2:10">
+      <c r="B10" s="6">
+        <v>10005</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="24">
+        <v>5</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="30">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="11" s="5" customFormat="1" ht="17.25" spans="2:10">
+      <c r="B11" s="6">
+        <v>10006</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="24">
+        <v>6</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" s="30">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="12" s="5" customFormat="1" ht="17.25" spans="2:10">
+      <c r="B12" s="6">
+        <v>10007</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="24">
+        <v>7</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J12" s="30">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="13" s="5" customFormat="1" ht="17.25" spans="2:10">
+      <c r="B13" s="6">
+        <v>10008</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="24">
         <v>8</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="14" t="s">
+      <c r="I13" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J13" s="30">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="14" s="5" customFormat="1" ht="17.25" spans="2:10">
+      <c r="B14" s="6">
+        <v>10009</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="24">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" s="3" customFormat="1" spans="1:8">
-      <c r="A3" s="15" t="s">
+      <c r="I14" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J14" s="30">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="15" s="5" customFormat="1" ht="17.25" spans="2:10">
+      <c r="B15" s="6">
+        <v>10010</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="24">
         <v>10</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16" t="s">
+      <c r="I15" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15" s="30">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="16" s="5" customFormat="1" ht="17.25" spans="2:10">
+      <c r="B16" s="6">
+        <v>10011</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="24">
         <v>11</v>
       </c>
-      <c r="D3" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" s="3" customFormat="1" spans="1:8">
-      <c r="A4" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17" t="s">
+      <c r="I16" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J16" s="30">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="17" s="5" customFormat="1" ht="17.25" spans="2:10">
+      <c r="B17" s="6">
+        <v>10012</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="24">
         <v>12</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="I17" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="J17" s="30">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="18" s="5" customFormat="1" ht="17.25" spans="2:10">
+      <c r="B18" s="6">
+        <v>10013</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="24">
         <v>13</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="18"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:8">
-      <c r="A5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8">
-      <c r="B6" s="5">
-        <v>10001</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="20">
+      <c r="I18" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J18" s="30">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="19" s="5" customFormat="1" ht="17.25" spans="2:10">
+      <c r="B19" s="6">
+        <v>10014</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="25">
         <v>1</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8">
-      <c r="B7" s="5">
-        <v>10002</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="20">
-        <v>2</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8">
-      <c r="B8" s="5">
-        <v>10003</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="20">
-        <v>3</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8">
-      <c r="B9" s="5">
-        <v>10004</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="20">
-        <v>4</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8">
-      <c r="B10" s="5">
-        <v>10005</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="20">
-        <v>5</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8">
-      <c r="B11" s="5">
-        <v>10006</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="20">
-        <v>6</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8">
-      <c r="B12" s="5">
-        <v>10007</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="20">
-        <v>7</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8">
-      <c r="B13" s="5">
-        <v>10008</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="20">
-        <v>8</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8">
-      <c r="B14" s="5">
-        <v>10009</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="20">
-        <v>9</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8">
-      <c r="B15" s="5">
-        <v>10010</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="20">
-        <v>10</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8">
-      <c r="B16" s="5">
-        <v>10011</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="20">
-        <v>11</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8">
-      <c r="B17" s="5">
-        <v>10012</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="20">
-        <v>12</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8">
-      <c r="B18" s="5">
-        <v>10013</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="20">
-        <v>13</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>60</v>
-      </c>
+      <c r="H19" s="25">
+        <v>10000</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="J19" s="30">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="20" s="5" customFormat="1" ht="17.25" spans="2:10">
+      <c r="B20" s="6">
+        <v>10015</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="G20" s="25">
+        <v>1</v>
+      </c>
+      <c r="H20" s="25">
+        <v>50000</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="J20" s="30">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="21" s="5" customFormat="1" ht="17.25" spans="2:10">
+      <c r="B21" s="6">
+        <v>10016</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="G21" s="25">
+        <v>1</v>
+      </c>
+      <c r="H21" s="25">
+        <v>100000</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J21" s="30">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="22" s="5" customFormat="1" ht="17.25" spans="2:10">
+      <c r="B22" s="6">
+        <v>10017</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22" s="25">
+        <v>1</v>
+      </c>
+      <c r="H22" s="25">
+        <v>150000</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J22" s="30">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="23" s="5" customFormat="1" ht="17.25" spans="2:10">
+      <c r="B23" s="6">
+        <v>10018</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="G23" s="25">
+        <v>1</v>
+      </c>
+      <c r="H23" s="25">
+        <v>200000</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J23" s="30">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="24" s="5" customFormat="1" ht="17.25" spans="2:10">
+      <c r="B24" s="6">
+        <v>10019</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="G24" s="25">
+        <v>1</v>
+      </c>
+      <c r="H24" s="25">
+        <v>250000</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J24" s="30">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="25" s="5" customFormat="1" ht="17.25" spans="2:10">
+      <c r="B25" s="6">
+        <v>10020</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="G25" s="25">
+        <v>1</v>
+      </c>
+      <c r="H25" s="25">
+        <v>300000</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="J25" s="30">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="26" s="5" customFormat="1" ht="17.25" spans="2:10">
+      <c r="B26" s="6">
+        <v>10021</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="G26" s="25">
+        <v>1</v>
+      </c>
+      <c r="H26" s="25">
+        <v>350000</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="J26" s="30">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="27" s="5" customFormat="1" ht="17.25" spans="2:10">
+      <c r="B27" s="6">
+        <v>10022</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="G27" s="25">
+        <v>1</v>
+      </c>
+      <c r="H27" s="25">
+        <v>400000</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="J27" s="30">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="28" s="5" customFormat="1" ht="17.25" spans="2:10">
+      <c r="B28" s="6">
+        <v>10023</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="G28" s="25">
+        <v>1</v>
+      </c>
+      <c r="H28" s="25">
+        <v>450000</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="J28" s="30">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="29" s="5" customFormat="1" ht="17.25" spans="2:10">
+      <c r="B29" s="6">
+        <v>10024</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="G29" s="25">
+        <v>1</v>
+      </c>
+      <c r="H29" s="25">
+        <v>500000</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="J29" s="30">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="30" s="5" customFormat="1" spans="2:9">
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" s="5" customFormat="1" spans="2:9">
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+    </row>
+    <row r="32" s="5" customFormat="1" spans="2:9">
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+    </row>
+    <row r="33" s="5" customFormat="1" spans="2:9">
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+    </row>
+    <row r="34" s="5" customFormat="1" spans="2:9">
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="F5:H5"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
